--- a/Resultados/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_18%_12m_0_LM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/enrico_abreu_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_18%_12m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_EACAB847A4DB9090E2BDAB37234C2C6153C06AB3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{251EDB4F-6129-4671-8AF5-5641EF041C3A}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_EACAB847A4DB9090E2BDAB37234C2C6153C06AB3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19FB7372-B2AF-4156-9843-EF7ABCC16520}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Geral" sheetId="33" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>ield_16ha_100ha_18%_12m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -4273,13 +4276,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A5D516-A642-4733-89C2-C35D830B6D3F}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -4307,8 +4310,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -4345,7 +4351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>1.6913279999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -4407,7 +4413,7 @@
         <v>1.8438560000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4438,7 +4444,7 @@
         <v>1.9339199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -4469,7 +4475,7 @@
         <v>1.994256</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>2.0367679999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>2.0668160000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -4562,7 +4568,7 @@
         <v>2.0886240000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -4593,7 +4599,7 @@
         <v>2.1067200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -4624,7 +4630,7 @@
         <v>2.1161760000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -4655,7 +4661,7 @@
         <v>2.1151520000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>2.1266400000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>2.1167199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>2.1187360000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -4779,7 +4785,7 @@
         <v>2.1094239999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4810,7 +4816,7 @@
         <v>2.1146879999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>2.1104320000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -4872,7 +4878,7 @@
         <v>2.0979839999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>2.1254560000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4934,7 +4940,7 @@
         <v>2.0880959999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -4965,7 +4971,7 @@
         <v>2.071488</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -4996,7 +5002,7 @@
         <v>2.073664</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -5027,7 +5033,7 @@
         <v>2.0525919999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>2.0505439999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>2.0488</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>2.0334719999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -5151,7 +5157,7 @@
         <v>2.0123679999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -5182,7 +5188,7 @@
         <v>2.0152480000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -5226,9 +5232,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5308,7 +5314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5388,7 +5394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5468,7 +5474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5548,7 +5554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5628,7 +5634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5708,7 +5714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5788,7 +5794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5880,9 +5886,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6042,7 +6048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6122,7 +6128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6202,7 +6208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6282,7 +6288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6362,7 +6368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6442,7 +6448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6522,7 +6528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6602,7 +6608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6682,7 +6688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6762,7 +6768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6842,7 +6848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6922,7 +6928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7014,9 +7020,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7096,7 +7102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7188,9 +7194,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7270,7 +7276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7362,9 +7368,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7444,7 +7450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7524,7 +7530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7604,7 +7610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7684,7 +7690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7764,7 +7770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7844,7 +7850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7936,9 +7942,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8018,7 +8024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8098,7 +8104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8190,9 +8196,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8352,7 +8358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8512,7 +8518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8592,7 +8598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8672,7 +8678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8752,7 +8758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8832,7 +8838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8912,7 +8918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8992,7 +8998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9072,7 +9078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9164,9 +9170,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9246,7 +9252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9326,7 +9332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9406,7 +9412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9498,9 +9504,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9580,7 +9586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9660,7 +9666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9740,7 +9746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9820,7 +9826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9900,7 +9906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9980,7 +9986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10060,7 +10066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10140,7 +10146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10232,9 +10238,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10314,7 +10320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10406,9 +10412,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10488,7 +10494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10568,7 +10574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10648,7 +10654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10728,7 +10734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10808,7 +10814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10888,7 +10894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10980,9 +10986,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11062,7 +11068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11154,9 +11160,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11236,7 +11242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11328,9 +11334,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11410,7 +11416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11490,7 +11496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11570,7 +11576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11650,7 +11656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11742,9 +11748,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11824,7 +11830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11916,9 +11922,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11998,7 +12004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12078,7 +12084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12158,7 +12164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12238,7 +12244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12318,7 +12324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -12398,7 +12404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12478,7 +12484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12558,7 +12564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -12650,9 +12656,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12732,7 +12738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12812,7 +12818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12892,7 +12898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12972,7 +12978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13052,7 +13058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -13132,7 +13138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13212,7 +13218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13292,7 +13298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -13372,7 +13378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -13452,7 +13458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -13532,7 +13538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -13612,7 +13618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -13704,9 +13710,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13786,7 +13792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13866,7 +13872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13958,9 +13964,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14040,7 +14046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -14120,7 +14126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14200,7 +14206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -14280,7 +14286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14360,7 +14366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -14440,7 +14446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -14520,7 +14526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -14600,7 +14606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -14680,7 +14686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -14760,7 +14766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -14852,9 +14858,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14934,7 +14940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15014,7 +15020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15094,7 +15100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15186,9 +15192,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15268,7 +15274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15348,7 +15354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15428,7 +15434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15508,7 +15514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15588,7 +15594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -15680,9 +15686,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15762,7 +15768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -15842,7 +15848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15922,7 +15928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16002,7 +16008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16082,7 +16088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16162,7 +16168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16242,7 +16248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16322,7 +16328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16402,7 +16408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -16482,7 +16488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -16562,7 +16568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -16654,9 +16660,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16736,7 +16742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16828,9 +16834,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16910,7 +16916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -16990,7 +16996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17070,7 +17076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17150,7 +17156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -17230,7 +17236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17310,7 +17316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17390,7 +17396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -17470,7 +17476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -17550,7 +17556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -17630,7 +17636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -17710,7 +17716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -17790,7 +17796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -17870,7 +17876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -17950,7 +17956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -18030,7 +18036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -18110,7 +18116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -18190,7 +18196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -18270,7 +18276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -18350,7 +18356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -18430,7 +18436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -18510,7 +18516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -18590,7 +18596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -18670,7 +18676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -18750,7 +18756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -18830,7 +18836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -18910,7 +18916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -18990,7 +18996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -19070,7 +19076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -19150,7 +19156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -19230,7 +19236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -19310,7 +19316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -19390,7 +19396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -19470,7 +19476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -19550,7 +19556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -19630,7 +19636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -19710,7 +19716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -19790,7 +19796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -19870,7 +19876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -19950,7 +19956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -20030,7 +20036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -20110,7 +20116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -20190,7 +20196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -20270,7 +20276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -20350,7 +20356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -20430,7 +20436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -20510,7 +20516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -20590,7 +20596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -20670,7 +20676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -20750,7 +20756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -20830,7 +20836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
@@ -20910,7 +20916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
@@ -20990,7 +20996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -21070,7 +21076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
@@ -21150,7 +21156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -21230,7 +21236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11</v>
       </c>
@@ -21310,7 +21316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -21390,7 +21396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -21470,7 +21476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -21550,7 +21556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -21630,7 +21636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -21710,7 +21716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -21790,7 +21796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -21870,7 +21876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -21950,7 +21956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5</v>
       </c>
@@ -22030,7 +22036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -22110,7 +22116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -22190,7 +22196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -22270,7 +22276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -22350,7 +22356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -22430,7 +22436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -22510,7 +22516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
@@ -22590,7 +22596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5</v>
       </c>
@@ -22670,7 +22676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6</v>
       </c>
@@ -22750,7 +22756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7</v>
       </c>
@@ -22830,7 +22836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>8</v>
       </c>
@@ -22910,7 +22916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>9</v>
       </c>
@@ -22990,7 +22996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10</v>
       </c>
@@ -23070,7 +23076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -23150,7 +23156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -23230,7 +23236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -23310,7 +23316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0</v>
       </c>
@@ -23390,7 +23396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -23470,7 +23476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -23550,7 +23556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -23630,7 +23636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -23710,7 +23716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5</v>
       </c>
@@ -23790,7 +23796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -23870,7 +23876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7</v>
       </c>
@@ -23950,7 +23956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0</v>
       </c>
@@ -24030,7 +24036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0</v>
       </c>
@@ -24110,7 +24116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -24190,7 +24196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0</v>
       </c>
@@ -24270,7 +24276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -24350,7 +24356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -24430,7 +24436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -24510,7 +24516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0</v>
       </c>
@@ -24590,7 +24596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0</v>
       </c>
@@ -24670,7 +24676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -24750,7 +24756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -24830,7 +24836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
@@ -24910,7 +24916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -24990,7 +24996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5</v>
       </c>
@@ -25070,7 +25076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>6</v>
       </c>
@@ -25150,7 +25156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>7</v>
       </c>
@@ -25230,7 +25236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0</v>
       </c>
@@ -25310,7 +25316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -25390,7 +25396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -25470,7 +25476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -25550,7 +25556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -25630,7 +25636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
@@ -25710,7 +25716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
@@ -25790,7 +25796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7</v>
       </c>
@@ -25870,7 +25876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>8</v>
       </c>
@@ -25950,7 +25956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>9</v>
       </c>
@@ -26030,7 +26036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>10</v>
       </c>
@@ -26110,7 +26116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>11</v>
       </c>
@@ -26190,7 +26196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0</v>
       </c>
@@ -26270,7 +26276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -26350,7 +26356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0</v>
       </c>
@@ -26430,7 +26436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -26510,7 +26516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2</v>
       </c>
@@ -26590,7 +26596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -26670,7 +26676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -26750,7 +26756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -26830,7 +26836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6</v>
       </c>
@@ -26910,7 +26916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7</v>
       </c>
@@ -26990,7 +26996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8</v>
       </c>
@@ -27070,7 +27076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>9</v>
       </c>
@@ -27150,7 +27156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0</v>
       </c>
@@ -27230,7 +27236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -27310,7 +27316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2</v>
       </c>
@@ -27390,7 +27396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0</v>
       </c>
@@ -27470,7 +27476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -27550,7 +27556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2</v>
       </c>
@@ -27630,7 +27636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -27710,7 +27716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4</v>
       </c>
@@ -27790,7 +27796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0</v>
       </c>
@@ -27882,24 +27888,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -27910,7 +27916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 1, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -27924,7 +27930,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 2, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -27938,7 +27944,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 3, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -27952,7 +27958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 4, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -27966,7 +27972,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 5, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -27980,7 +27986,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 6, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -27994,7 +28000,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 7, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28008,7 +28014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 8, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28022,7 +28028,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 9, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28036,7 +28042,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 10, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28050,7 +28056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 11, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28064,7 +28070,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 12, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28078,7 +28084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 13, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28092,7 +28098,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 14, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28106,7 +28112,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 15, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28120,7 +28126,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 16, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28134,7 +28140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 17, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28148,7 +28154,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 18, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28162,7 +28168,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 19, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28176,7 +28182,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 20, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28190,7 +28196,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 21, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28204,7 +28210,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 22, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28218,7 +28224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 23, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28232,7 +28238,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 24, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28246,7 +28252,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 25, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28260,7 +28266,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 26, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28274,7 +28280,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 27, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28288,7 +28294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 28, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28302,7 +28308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 29, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28316,7 +28322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 30, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28330,7 +28336,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 31, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28344,7 +28350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 32, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28358,7 +28364,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 33, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28372,7 +28378,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 34, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28386,7 +28392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 35, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28400,7 +28406,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 36, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28414,7 +28420,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 37, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28428,7 +28434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 38, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28442,7 +28448,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 39, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28456,7 +28462,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 40, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28470,7 +28476,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 41, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28484,7 +28490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 42, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28498,7 +28504,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 43, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28512,7 +28518,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 44, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28526,7 +28532,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 45, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28540,7 +28546,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 46, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28554,7 +28560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 47, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28568,7 +28574,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 48, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28582,7 +28588,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 49, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28596,7 +28602,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 50, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28610,7 +28616,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 51, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28624,7 +28630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 52, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28638,7 +28644,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 53, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28652,7 +28658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 54, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28666,7 +28672,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 55, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28680,7 +28686,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 56, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28694,7 +28700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 57, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28708,7 +28714,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 58, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28722,7 +28728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 59, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28736,7 +28742,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 60, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28750,7 +28756,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 61, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28764,7 +28770,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 62, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28778,7 +28784,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 63, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28792,7 +28798,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 64, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28806,7 +28812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 65, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28820,7 +28826,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 66, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28834,7 +28840,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 67, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28848,7 +28854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 68, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28862,7 +28868,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 69, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28876,7 +28882,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 70, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28890,7 +28896,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 71, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28904,7 +28910,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 72, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28918,7 +28924,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 73, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28932,7 +28938,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 74, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28946,7 +28952,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 75, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28960,7 +28966,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 76, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28974,7 +28980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 77, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -28988,7 +28994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 78, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29002,7 +29008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 79, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29016,7 +29022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 80, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29030,7 +29036,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 81, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29044,7 +29050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 82, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29058,7 +29064,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 83, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29072,7 +29078,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 84, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29086,7 +29092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 85, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29100,7 +29106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 86, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29114,7 +29120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 87, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29128,7 +29134,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 88, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29142,7 +29148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 89, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29156,7 +29162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 90, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29170,7 +29176,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 91, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29184,7 +29190,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 92, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29198,7 +29204,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 93, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29212,7 +29218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 94, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29226,7 +29232,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 95, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29240,7 +29246,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 96, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29254,7 +29260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 97, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29268,7 +29274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 98, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29282,7 +29288,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 99, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29296,7 +29302,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 100, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29310,7 +29316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 101, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29324,7 +29330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 102, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29338,7 +29344,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 103, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29352,7 +29358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 104, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29366,7 +29372,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 105, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29380,7 +29386,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 106, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29394,7 +29400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 107, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29408,7 +29414,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 108, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29422,7 +29428,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 109, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29436,7 +29442,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 110, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29450,7 +29456,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 111, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29464,7 +29470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 112, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29478,7 +29484,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 113, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29492,7 +29498,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 114, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29506,7 +29512,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 115, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29520,7 +29526,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 116, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29534,7 +29540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 117, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29548,7 +29554,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 118, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29562,7 +29568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 119, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29576,7 +29582,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 120, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29590,7 +29596,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 121, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29604,7 +29610,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 122, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29618,7 +29624,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 123, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29632,7 +29638,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 124, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29646,7 +29652,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 125, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29660,7 +29666,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 126, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29674,7 +29680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 127, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29688,7 +29694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 128, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29702,7 +29708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 129, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29716,7 +29722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 130, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29730,7 +29736,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 131, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29744,7 +29750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 132, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29758,7 +29764,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 133, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29772,7 +29778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 134, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29786,7 +29792,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 135, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29800,7 +29806,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 136, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29814,7 +29820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="e">
         <f>INDEX(resultados!$A$2:$ZZ$138, 137, MATCH($B$1, resultados!$A$1:$ZZ$1, 0))</f>
         <v>#N/A</v>
@@ -29853,134 +29859,134 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -29997,9 +30003,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30079,7 +30085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -30171,9 +30177,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30253,7 +30259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -30333,7 +30339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -30413,7 +30419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -30493,7 +30499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -30573,7 +30579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -30653,7 +30659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -30733,7 +30739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -30813,7 +30819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -30893,7 +30899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -30985,9 +30991,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31067,7 +31073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -31159,9 +31165,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31241,7 +31247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -31333,9 +31339,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31415,7 +31421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -31495,7 +31501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -31587,9 +31593,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31669,7 +31675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -31749,7 +31755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -31829,7 +31835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -31909,7 +31915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -31989,7 +31995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>

--- a/Resultados/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_18%_12m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_EACAB847A4DB9090E2BDAB37234C2C6153C06AB3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{251EDB4F-6129-4671-8AF5-5641EF041C3A}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_EACAB847A4DB9090E2BDAB37234C2C6153C06AB3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEC548AD-E5DD-4B16-99C9-2E8767998A4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>ield_16ha_100ha_18%_12m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -4273,13 +4276,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A5D516-A642-4733-89C2-C35D830B6D3F}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -4307,8 +4310,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -4345,7 +4351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>1.6913279999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -4407,7 +4413,7 @@
         <v>1.8438560000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4438,7 +4444,7 @@
         <v>1.9339199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -4469,7 +4475,7 @@
         <v>1.994256</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>2.0367679999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>2.0668160000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -4562,7 +4568,7 @@
         <v>2.0886240000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -4593,7 +4599,7 @@
         <v>2.1067200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -4624,7 +4630,7 @@
         <v>2.1161760000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -4655,7 +4661,7 @@
         <v>2.1151520000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>2.1266400000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>2.1167199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>2.1187360000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
